--- a/biology/Zoologie/Euchroma_giganteum/Euchroma_giganteum.xlsx
+++ b/biology/Zoologie/Euchroma_giganteum/Euchroma_giganteum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euchroma giganteum, unique représentant du genre Euchroma, est une espèce de coléoptères de la famille des Buprestidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euchroma giganteum, unique représentant du genre Euchroma, est une espèce de coléoptères de la famille des Buprestidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une des plus grandes espèces de la famille des Buprestidae. Euchroma giganteum peut mesurer jusqu'à 8 cm de long[2]. La larve de cette espèce se nourrit de bois mort en décomposition, en particulier de certaines espèces de Malvaceae comme le Fromager[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une des plus grandes espèces de la famille des Buprestidae. Euchroma giganteum peut mesurer jusqu'à 8 cm de long. La larve de cette espèce se nourrit de bois mort en décomposition, en particulier de certaines espèces de Malvaceae comme le Fromager.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce vit dans les forêts tropicales, en Amérique centrale et en Amérique du Sud. Elle se rencontre au Mexique, au Panama, en Équateur, à Cuba, au Pérou, au Brésil, en Colombie, en Argentine, au Venezuela et en Guyane.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (17 février 2023)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (17 février 2023) :
 Euchroma giganteum giganteum (Linnaeus, 1758)
 Euchroma giganteum goliath (Laporte &amp; Gory, 1836)
 Euchroma giganteum harperi Sharp, 1881
@@ -608,11 +626,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Euchroma giganteum (Linnaeus, 1758)[3].
-L'espèce a été initialement classée dans le genre Buprestis sous le protonyme Buprestis giganteum Linnaeus, 1758[3].
-Euchroma giganteum a pour synonymes[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Euchroma giganteum (Linnaeus, 1758).
+L'espèce a été initialement classée dans le genre Buprestis sous le protonyme Buprestis giganteum Linnaeus, 1758.
+Euchroma giganteum a pour synonymes :
 Buprestis caribana Voet, 1809
 Buprestis giganteum Linnaeus, 1758
 Euchroma camposi Théry, 1931
